--- a/CompCars_Original/ResNet/wronglyClassifications/Data_Full_XGradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/ResNet/wronglyClassifications/Data_Full_XGradCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2190896482036098</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2182998777119624</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2875762590615493</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2964510730896452</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2191908236129156</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006814136075455001</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006816066391823639</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006646744627724184</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006579464844518968</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006813369066751237</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01431627888193678</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01431436094389824</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.0144825969167129</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.01824792720801028</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01435920472040352</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004798151906854492</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004800865756043972</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004562814761021917</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004409367348128171</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004796402562613895</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005175859307831095</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005179830839241764</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004831459600436145</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004646940995016728</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005173755743140197</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006509083619149677</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006512587149845679</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006205267578991563</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0059323506992044</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006505972288936839</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006833450338340428</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006839442213974776</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.006313852228232862</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.006131412904898998</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006831370478057913</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.307690389249163</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.3080146010452114</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2795756808036836</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2730609007645639</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.3076161188999582</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1427741516770314</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1430040238971176</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1228402981707364</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1269877064452548</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1428214333134018</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002571297135642042</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002573580191472333</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002373317142885038</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002241474998133931</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002569794097615929</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02343193716800043</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02345234628946874</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.02166211723330523</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.02046289688666136</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02341826571426233</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002453377598224335</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002456785733137595</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002157834004200209</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002056026616572715</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002452216964989551</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01848056784645341</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01850193796496959</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01662741302959992</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01542947942482726</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01846691106193939</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2279871979531976</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.228255791226579</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2046955667924243</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.1929463124983661</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2278532531056244</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003263917414771153</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003265744765105771</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.003105454883451363</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.003188367916263552</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003264862646976017</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002091554047417558</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002093004749867094</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.001965753330395511</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.001734751225455408</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002088920557583995</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002466717654123798</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002477701451244274</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001514234563038219</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001442338732105606</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002465898021160341</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005450073333051747</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005351088589412009</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01403374376670537</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01273215768287048</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.00543523488073472</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>2.22562093251963e-05</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>2.02941709609453e-05</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.000192398496688304</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>3.820993704431841e-05</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>2.049841580041674e-05</v>
       </c>
     </row>
